--- a/Management/Project Management.xlsx
+++ b/Management/Project Management.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Activities</t>
   </si>
@@ -55,16 +55,10 @@
     <t>Tìm hiểu Decision Tree</t>
   </si>
   <si>
-    <t>Tìm hiểu Semantic Heirarchical Tree</t>
-  </si>
-  <si>
     <t>Lý thuyết cơ bản Decision Tree trong Computer Science</t>
   </si>
   <si>
     <t>Decision Tree trong SQL Server 2008 R2</t>
-  </si>
-  <si>
-    <t>Network Storage</t>
   </si>
   <si>
     <t>Experience Attribute Entities Model</t>
@@ -105,14 +99,34 @@
   </si>
   <si>
     <t>đọc sách pttknv để theo chuẩn thiết kế</t>
+  </si>
+  <si>
+    <t>Tìm hiểu Cell Organizing Map &amp; Clustering</t>
+  </si>
+  <si>
+    <t>Tìm hiểu OLAP - Analysis services - Pilot table</t>
+  </si>
+  <si>
+    <t>Tìm hiểu TOGAF</t>
+  </si>
+  <si>
+    <t>Lý thuyết</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,19 +177,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,6 +237,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,196 +561,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="58.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A2:A28"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B14"/>

--- a/Management/Project Management.xlsx
+++ b/Management/Project Management.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Activities</t>
   </si>
@@ -101,9 +101,6 @@
     <t>đọc sách pttknv để theo chuẩn thiết kế</t>
   </si>
   <si>
-    <t>Tìm hiểu Cell Organizing Map &amp; Clustering</t>
-  </si>
-  <si>
     <t>Tìm hiểu OLAP - Analysis services - Pilot table</t>
   </si>
   <si>
@@ -111,13 +108,28 @@
   </si>
   <si>
     <t>Lý thuyết</t>
+  </si>
+  <si>
+    <t>Tìm hiểu Self Organizing Maps (SOMs) &amp; Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mục đích:  reduce dimensions of data </t>
+  </si>
+  <si>
+    <t>display similarities</t>
+  </si>
+  <si>
+    <t>SOMs Reference</t>
+  </si>
+  <si>
+    <t>C# Self Organising Map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +141,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,10 +240,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -237,9 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,13 +273,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,73 +593,73 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="58.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
@@ -639,16 +668,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -662,8 +691,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
@@ -672,8 +701,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -682,14 +711,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -702,15 +731,15 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -718,8 +747,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -727,70 +756,82 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="D16" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="D17" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="D18" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="7"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -802,7 +843,11 @@
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1" location="Introduction"/>
+    <hyperlink ref="D18" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>